--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2121123.104628867</v>
+        <v>-2123657.193464636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.1770775904957</v>
+        <v>364.177077590496</v>
       </c>
       <c r="C11" t="n">
-        <v>346.7161276980227</v>
+        <v>346.7161276980229</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>363.3736059992769</v>
+        <v>363.3736059992772</v>
       </c>
       <c r="F11" t="n">
-        <v>388.3192816687266</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>164.3502433856204</v>
+        <v>392.7563390795282</v>
       </c>
       <c r="H11" t="n">
-        <v>280.0591951265769</v>
+        <v>280.059195126577</v>
       </c>
       <c r="I11" t="n">
-        <v>38.10874673242537</v>
+        <v>38.10874673242526</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.54951247500514</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.0744610687677</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>309.1954943971503</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>330.6842046444284</v>
       </c>
       <c r="X11" t="n">
-        <v>351.1743366054842</v>
+        <v>151.3640495280416</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.6811745830688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.2088745889076</v>
       </c>
       <c r="H12" t="n">
-        <v>91.61929095309598</v>
+        <v>91.61929095309594</v>
       </c>
       <c r="I12" t="n">
-        <v>15.90126351685842</v>
+        <v>15.90126351685826</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0331215329019</v>
+        <v>132.0331215329018</v>
       </c>
       <c r="T12" t="n">
-        <v>191.5606211255914</v>
+        <v>191.5606211255913</v>
       </c>
       <c r="U12" t="n">
         <v>225.8009450695075</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.2752161089525</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>148.690057025643</v>
+        <v>148.6900570256432</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.86258329627556</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>127.8771985735846</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.8642839499466</v>
       </c>
       <c r="G13" t="n">
-        <v>147.6446026584698</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.759125259818</v>
+        <v>127.7591252598181</v>
       </c>
       <c r="I13" t="n">
-        <v>83.07517839854907</v>
+        <v>83.07517839854917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.26913591179871</v>
+        <v>78.26913591179877</v>
       </c>
       <c r="S13" t="n">
-        <v>174.2717666370154</v>
+        <v>174.2717666370155</v>
       </c>
       <c r="T13" t="n">
-        <v>201.742298676279</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>267.6646500493058</v>
+        <v>267.664650049306</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>233.5808792508434</v>
       </c>
       <c r="W13" t="n">
-        <v>19.52282762694855</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>207.1528913160523</v>
+        <v>207.1528913160525</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.02788927911</v>
+        <v>200.0278892791102</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905545</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4683361705432</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993357</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687853</v>
+        <v>96.8723307267428</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805273</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143943</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524973</v>
+        <v>67.61083201524991</v>
       </c>
       <c r="T14" t="n">
-        <v>162.341040366694</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859759</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444869</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055429</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831275</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090112</v>
+        <v>138.2550504090114</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257017</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452862</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
-        <v>104.857032873643</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500051</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861021</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413947</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691199</v>
+        <v>54.77549063691217</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712122</v>
+        <v>47.35522289712141</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585158</v>
+        <v>19.49452579234693</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032431</v>
+        <v>177.9720195032433</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326867</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86314378473691</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636649</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X16" t="n">
-        <v>184.132725616111</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791687</v>
+        <v>177.0077235791689</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>294.1817752719619</v>
+        <v>294.1817752719621</v>
       </c>
       <c r="C17" t="n">
-        <v>276.7208253794888</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D17" t="n">
-        <v>266.1309752291643</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E17" t="n">
-        <v>293.3783036807431</v>
+        <v>293.3783036807433</v>
       </c>
       <c r="F17" t="n">
-        <v>318.3239793501928</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G17" t="n">
-        <v>322.3696592619348</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H17" t="n">
-        <v>206.0556979958018</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.63569539665714</v>
+        <v>20.63569539665734</v>
       </c>
       <c r="T17" t="n">
-        <v>115.3659037481015</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U17" t="n">
-        <v>162.4431055673833</v>
+        <v>162.4431055673835</v>
       </c>
       <c r="V17" t="n">
-        <v>111.3430383664067</v>
+        <v>239.2001920786164</v>
       </c>
       <c r="W17" t="n">
-        <v>260.6889023258943</v>
+        <v>260.6889023258945</v>
       </c>
       <c r="X17" t="n">
-        <v>281.1790342869504</v>
+        <v>153.3218805747393</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.6858722645349</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.27991379041859</v>
+        <v>91.2799137904188</v>
       </c>
       <c r="C19" t="n">
-        <v>78.69475470710913</v>
+        <v>78.69475470710934</v>
       </c>
       <c r="D19" t="n">
-        <v>60.06340662669365</v>
+        <v>60.06340662669386</v>
       </c>
       <c r="E19" t="n">
-        <v>57.88189625505046</v>
+        <v>57.88189625505068</v>
       </c>
       <c r="F19" t="n">
-        <v>56.86898163141254</v>
+        <v>56.86898163141275</v>
       </c>
       <c r="G19" t="n">
-        <v>77.47374186750952</v>
+        <v>77.47374186750973</v>
       </c>
       <c r="H19" t="n">
-        <v>87.45497451600387</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>7.800354018319403</v>
+        <v>7.800354018319602</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.380086278528637</v>
+        <v>31.6321122717283</v>
       </c>
       <c r="S19" t="n">
-        <v>101.2169589399232</v>
+        <v>101.2169589399234</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>130.9968828846507</v>
       </c>
       <c r="U19" t="n">
-        <v>197.6597718140941</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V19" t="n">
-        <v>163.5855769323093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.0325869605761</v>
+        <v>130.0325869605763</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>294.1817752719619</v>
+        <v>294.1817752719621</v>
       </c>
       <c r="C20" t="n">
-        <v>276.7208253794888</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D20" t="n">
-        <v>266.1309752291643</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E20" t="n">
-        <v>293.3783036807431</v>
+        <v>293.3783036807433</v>
       </c>
       <c r="F20" t="n">
-        <v>318.3239793501928</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G20" t="n">
-        <v>322.3696592619348</v>
+        <v>215.1482009463815</v>
       </c>
       <c r="H20" t="n">
-        <v>206.0556979958018</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>20.63569539665714</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>115.3659037481015</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U20" t="n">
-        <v>34.58595185517392</v>
+        <v>162.4431055673835</v>
       </c>
       <c r="V20" t="n">
-        <v>239.2001920786162</v>
+        <v>239.2001920786164</v>
       </c>
       <c r="W20" t="n">
-        <v>260.6889023258943</v>
+        <v>260.6889023258945</v>
       </c>
       <c r="X20" t="n">
-        <v>281.1790342869504</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.6858722645349</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.27991379041859</v>
+        <v>91.2799137904188</v>
       </c>
       <c r="C22" t="n">
-        <v>78.69475470710913</v>
+        <v>78.69475470710934</v>
       </c>
       <c r="D22" t="n">
-        <v>60.06340662669365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>57.88189625505046</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>56.86898163141254</v>
+        <v>88.12100762461164</v>
       </c>
       <c r="G22" t="n">
-        <v>77.47374186750952</v>
+        <v>77.47374186750973</v>
       </c>
       <c r="H22" t="n">
-        <v>56.20294852280207</v>
+        <v>56.20294852280229</v>
       </c>
       <c r="I22" t="n">
-        <v>39.05238001152085</v>
+        <v>7.800354018319617</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.380086278528637</v>
+        <v>0.3800862785288501</v>
       </c>
       <c r="S22" t="n">
-        <v>101.2169589399232</v>
+        <v>101.2169589399234</v>
       </c>
       <c r="T22" t="n">
-        <v>130.9968828846505</v>
+        <v>130.9968828846507</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>163.5855769323095</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>197.9709319450725</v>
       </c>
       <c r="X22" t="n">
-        <v>137.1575889975184</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.0325869605761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294.1817752719619</v>
+        <v>294.1817752719621</v>
       </c>
       <c r="C23" t="n">
-        <v>276.7208253794888</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D23" t="n">
-        <v>266.1309752291643</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E23" t="n">
-        <v>293.3783036807431</v>
+        <v>293.3783036807433</v>
       </c>
       <c r="F23" t="n">
-        <v>318.3239793501928</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G23" t="n">
-        <v>322.3696592619348</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H23" t="n">
-        <v>206.0556979958018</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>20.63569539665714</v>
+        <v>20.63569539665735</v>
       </c>
       <c r="T23" t="n">
-        <v>115.3659037481015</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U23" t="n">
-        <v>162.4431055673833</v>
+        <v>162.4431055673835</v>
       </c>
       <c r="V23" t="n">
-        <v>239.2001920786162</v>
+        <v>239.2001920786164</v>
       </c>
       <c r="W23" t="n">
-        <v>260.6889023258943</v>
+        <v>260.6889023258945</v>
       </c>
       <c r="X23" t="n">
-        <v>281.1790342869504</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.6858722645349</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>91.2799137904188</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>78.69475470710934</v>
       </c>
       <c r="D25" t="n">
-        <v>60.06340662669365</v>
+        <v>60.06340662669386</v>
       </c>
       <c r="E25" t="n">
-        <v>89.13392224825218</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>56.86898163141254</v>
+        <v>56.86898163141275</v>
       </c>
       <c r="G25" t="n">
-        <v>77.47374186750952</v>
+        <v>77.47374186750973</v>
       </c>
       <c r="H25" t="n">
-        <v>56.20294852280207</v>
+        <v>56.20294852280229</v>
       </c>
       <c r="I25" t="n">
-        <v>7.800354018319403</v>
+        <v>7.800354018319617</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.380086278528637</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>101.2169589399232</v>
+        <v>132.4689849331221</v>
       </c>
       <c r="T25" t="n">
-        <v>130.9968828846505</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>197.6597718140941</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V25" t="n">
-        <v>163.5855769323093</v>
+        <v>163.5855769323095</v>
       </c>
       <c r="W25" t="n">
-        <v>197.9709319450723</v>
+        <v>197.9709319450725</v>
       </c>
       <c r="X25" t="n">
-        <v>137.1575889975184</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.0325869605763</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>311.9350677537279</v>
       </c>
       <c r="F26" t="n">
-        <v>336.8807434231776</v>
+        <v>336.8807434231775</v>
       </c>
       <c r="G26" t="n">
-        <v>340.9264233349196</v>
+        <v>340.9264233349195</v>
       </c>
       <c r="H26" t="n">
         <v>224.6124620687866</v>
@@ -2615,10 +2615,10 @@
         <v>257.756956151601</v>
       </c>
       <c r="W26" t="n">
-        <v>279.2456663988792</v>
+        <v>279.2456663988791</v>
       </c>
       <c r="X26" t="n">
-        <v>299.7357983599352</v>
+        <v>299.7357983599351</v>
       </c>
       <c r="Y26" t="n">
         <v>316.2426363375197</v>
@@ -2713,25 +2713,25 @@
         <v>109.8366778634034</v>
       </c>
       <c r="C28" t="n">
-        <v>97.25151878009396</v>
+        <v>97.25151878009395</v>
       </c>
       <c r="D28" t="n">
-        <v>78.62017069967848</v>
+        <v>78.62017069967847</v>
       </c>
       <c r="E28" t="n">
-        <v>76.4386603280353</v>
+        <v>76.43866032803528</v>
       </c>
       <c r="F28" t="n">
-        <v>75.42574570439737</v>
+        <v>75.42574570439736</v>
       </c>
       <c r="G28" t="n">
-        <v>96.03050594049435</v>
+        <v>96.03050594049434</v>
       </c>
       <c r="H28" t="n">
-        <v>74.75971259578691</v>
+        <v>74.75971259578689</v>
       </c>
       <c r="I28" t="n">
-        <v>26.35711809130424</v>
+        <v>26.35711809130422</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.93685035151347</v>
+        <v>18.93685035151346</v>
       </c>
       <c r="S28" t="n">
         <v>119.773723012908</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.95950582245172</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.4124289181743</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>99.36210032693386</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>172.8237348705153</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450089</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482627</v>
+        <v>89.94326605922107</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H46" t="n">
-        <v>90.60953276887621</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>143.0438109257895</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.863989523531</v>
+        <v>1492.335518841896</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.645678717448</v>
+        <v>1142.117208035813</v>
       </c>
       <c r="D11" t="n">
-        <v>1303.645678717448</v>
+        <v>1142.117208035813</v>
       </c>
       <c r="E11" t="n">
-        <v>936.6016322535315</v>
+        <v>775.0731615718962</v>
       </c>
       <c r="F11" t="n">
-        <v>544.3599335982522</v>
+        <v>775.0731615718962</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3495867440902</v>
+        <v>378.3495867440903</v>
       </c>
       <c r="H11" t="n">
-        <v>95.46151085865898</v>
+        <v>95.4615108586591</v>
       </c>
       <c r="I11" t="n">
-        <v>56.96782729055253</v>
+        <v>56.96782729055276</v>
       </c>
       <c r="J11" t="n">
-        <v>212.9614589989002</v>
+        <v>212.961458998901</v>
       </c>
       <c r="K11" t="n">
-        <v>497.4939939982399</v>
+        <v>497.4939939982416</v>
       </c>
       <c r="L11" t="n">
-        <v>887.3835256106743</v>
+        <v>887.383525610677</v>
       </c>
       <c r="M11" t="n">
-        <v>1352.880190643716</v>
+        <v>1352.880190643721</v>
       </c>
       <c r="N11" t="n">
-        <v>1830.522886757606</v>
+        <v>1830.522886757612</v>
       </c>
       <c r="O11" t="n">
-        <v>2268.212079098259</v>
+        <v>2268.212079098267</v>
       </c>
       <c r="P11" t="n">
-        <v>2607.268677604699</v>
+        <v>2607.268677604709</v>
       </c>
       <c r="Q11" t="n">
-        <v>2813.713316127856</v>
+        <v>2813.713316127867</v>
       </c>
       <c r="R11" t="n">
-        <v>2848.391364527627</v>
+        <v>2848.391364527638</v>
       </c>
       <c r="S11" t="n">
-        <v>2747.83630142156</v>
+        <v>2848.391364527638</v>
       </c>
       <c r="T11" t="n">
-        <v>2747.83630142156</v>
+        <v>2659.427262437973</v>
       </c>
       <c r="U11" t="n">
-        <v>2747.83630142156</v>
+        <v>2659.427262437973</v>
       </c>
       <c r="V11" t="n">
-        <v>2747.83630142156</v>
+        <v>2347.108581228731</v>
       </c>
       <c r="W11" t="n">
-        <v>2747.83630142156</v>
+        <v>2013.084132092944</v>
       </c>
       <c r="X11" t="n">
-        <v>2393.114749294808</v>
+        <v>1860.19115277169</v>
       </c>
       <c r="Y11" t="n">
-        <v>2021.719623453325</v>
+        <v>1860.19115277169</v>
       </c>
     </row>
     <row r="12">
@@ -5112,37 +5112,37 @@
         <v>165.5744479672742</v>
       </c>
       <c r="H12" t="n">
-        <v>73.02970963081357</v>
+        <v>73.02970963081364</v>
       </c>
       <c r="I12" t="n">
-        <v>56.96782729055253</v>
+        <v>56.96782729055276</v>
       </c>
       <c r="J12" t="n">
-        <v>255.8888437026946</v>
+        <v>193.0950310788247</v>
       </c>
       <c r="K12" t="n">
-        <v>659.7035749153274</v>
+        <v>659.7035749153213</v>
       </c>
       <c r="L12" t="n">
-        <v>981.3887996107239</v>
+        <v>981.3887996107187</v>
       </c>
       <c r="M12" t="n">
-        <v>1376.137152090698</v>
+        <v>1376.137152090694</v>
       </c>
       <c r="N12" t="n">
-        <v>1795.741963766182</v>
+        <v>1795.741963766179</v>
       </c>
       <c r="O12" t="n">
-        <v>2157.3785947966</v>
+        <v>2157.378594796598</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.290807403807</v>
+        <v>2428.290807403806</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.469250653781</v>
+        <v>2559.46925065378</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.469250653781</v>
+        <v>2559.46925065378</v>
       </c>
       <c r="S12" t="n">
         <v>2426.102461226607</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>569.2597094546734</v>
+        <v>719.7238136580449</v>
       </c>
       <c r="C13" t="n">
-        <v>419.0677326610947</v>
+        <v>569.531836864466</v>
       </c>
       <c r="D13" t="n">
-        <v>419.0677326610947</v>
+        <v>527.2463991914603</v>
       </c>
       <c r="E13" t="n">
-        <v>419.0677326610947</v>
+        <v>398.0775117433951</v>
       </c>
       <c r="F13" t="n">
-        <v>419.0677326610947</v>
+        <v>269.9317703798127</v>
       </c>
       <c r="G13" t="n">
-        <v>269.9317703798121</v>
+        <v>269.9317703798127</v>
       </c>
       <c r="H13" t="n">
-        <v>140.8821489052486</v>
+        <v>140.8821489052489</v>
       </c>
       <c r="I13" t="n">
-        <v>56.96782729055253</v>
+        <v>56.96782729055276</v>
       </c>
       <c r="J13" t="n">
-        <v>108.1737920092019</v>
+        <v>108.1737920092022</v>
       </c>
       <c r="K13" t="n">
-        <v>310.3394358918485</v>
+        <v>310.339435891849</v>
       </c>
       <c r="L13" t="n">
-        <v>619.4306814500472</v>
+        <v>619.430681450048</v>
       </c>
       <c r="M13" t="n">
-        <v>954.7145308214151</v>
+        <v>954.7145308214165</v>
       </c>
       <c r="N13" t="n">
-        <v>1287.897522062352</v>
+        <v>1287.897522062354</v>
       </c>
       <c r="O13" t="n">
-        <v>1581.032069251449</v>
+        <v>1581.032069251451</v>
       </c>
       <c r="P13" t="n">
-        <v>1810.990096862916</v>
+        <v>1810.990096862918</v>
       </c>
       <c r="Q13" t="n">
-        <v>1892.417967642009</v>
+        <v>1892.417967642011</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.358234397768</v>
+        <v>1813.35823439777</v>
       </c>
       <c r="S13" t="n">
-        <v>1637.326146885631</v>
+        <v>1637.326146885633</v>
       </c>
       <c r="T13" t="n">
-        <v>1433.546047212622</v>
+        <v>1637.326146885633</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.177713829485</v>
+        <v>1366.957813502496</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.177713829485</v>
+        <v>1131.017531430937</v>
       </c>
       <c r="W13" t="n">
-        <v>1143.457685923476</v>
+        <v>1131.017531430937</v>
       </c>
       <c r="X13" t="n">
-        <v>934.212341159787</v>
+        <v>921.7721866672472</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.163968150585</v>
+        <v>719.7238136580449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.811634546917</v>
+        <v>1780.050980439092</v>
       </c>
       <c r="C14" t="n">
-        <v>1546.811634546917</v>
+        <v>1453.085362259212</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.954729324146</v>
+        <v>1136.816562412992</v>
       </c>
       <c r="E14" t="n">
-        <v>1064.163375486433</v>
+        <v>793.0252085752794</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573568</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0988180628847</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H14" t="n">
+        <v>66.51211643218343</v>
+      </c>
+      <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
-      <c r="I14" t="n">
-        <v>66.51211643218357</v>
-      </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.312051896797</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.33120304155</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075918</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.797625075918</v>
+        <v>2804.265214458512</v>
       </c>
       <c r="W14" t="n">
-        <v>2571.025868566336</v>
+        <v>2804.265214458512</v>
       </c>
       <c r="X14" t="n">
-        <v>2239.557009065787</v>
+        <v>2472.796354957963</v>
       </c>
       <c r="Y14" t="n">
-        <v>1891.414575850507</v>
+        <v>2124.653921742683</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.6353891180876</v>
+        <v>797.6353891180887</v>
       </c>
       <c r="C16" t="n">
-        <v>670.6961049507121</v>
+        <v>670.696104950713</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989078</v>
+        <v>562.5763642989085</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770462</v>
+        <v>456.6601694770467</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396672</v>
+        <v>351.7671207396676</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749174</v>
+        <v>226.0611828749177</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533066</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543158</v>
+        <v>152.7959093543159</v>
       </c>
       <c r="K16" t="n">
-        <v>397.944252778389</v>
+        <v>397.9442527783889</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020819</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M16" t="n">
-        <v>1140.983417776828</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
         <v>1523.552954957889</v>
@@ -5455,31 +5455,31 @@
         <v>2137.812375262355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890067</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408126</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995484</v>
+        <v>2189.058833213835</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.291571325541</v>
+        <v>2009.289116543892</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211717</v>
+        <v>1762.183148430067</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.49555898471</v>
+        <v>1549.495558984712</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.07528770828</v>
+        <v>1302.075287708282</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.082635570795</v>
+        <v>1116.082635570796</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.2869551877959</v>
+        <v>937.2869551877972</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1218.156197531853</v>
       </c>
       <c r="E17" t="n">
-        <v>921.8144766422133</v>
+        <v>921.8144766422135</v>
       </c>
       <c r="F17" t="n">
-        <v>600.2751035612107</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6491851148114</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,7 +5540,7 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3304.761684844869</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T17" t="n">
         <v>3188.230468937696</v>
@@ -5549,16 +5549,16 @@
         <v>3024.146523920137</v>
       </c>
       <c r="V17" t="n">
-        <v>2911.678808398514</v>
+        <v>2782.530168285171</v>
       </c>
       <c r="W17" t="n">
-        <v>2648.356684837005</v>
+        <v>2519.208044723661</v>
       </c>
       <c r="X17" t="n">
-        <v>2364.337458284529</v>
+        <v>2364.33745828453</v>
       </c>
       <c r="Y17" t="n">
-        <v>2063.644658017322</v>
+        <v>2063.644658017323</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>497.0556615050102</v>
+        <v>554.9344901901801</v>
       </c>
       <c r="C19" t="n">
-        <v>417.5660102857081</v>
+        <v>475.4448389708778</v>
       </c>
       <c r="D19" t="n">
-        <v>356.8959025819771</v>
+        <v>414.7747312671466</v>
       </c>
       <c r="E19" t="n">
-        <v>298.4293407081888</v>
+        <v>356.308169393358</v>
       </c>
       <c r="F19" t="n">
-        <v>240.9859249188832</v>
+        <v>298.8647536040522</v>
       </c>
       <c r="G19" t="n">
-        <v>162.7296200022069</v>
+        <v>220.6084486873757</v>
       </c>
       <c r="H19" t="n">
-        <v>74.39126190523329</v>
+        <v>74.39126190523351</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1926.910622554625</v>
+        <v>1895.342919531191</v>
       </c>
       <c r="S19" t="n">
-        <v>1824.671270090056</v>
+        <v>1793.103567066622</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.904654659582</v>
+        <v>1660.783483344753</v>
       </c>
       <c r="U19" t="n">
-        <v>1403.248319493831</v>
+        <v>1461.127148179001</v>
       </c>
       <c r="V19" t="n">
-        <v>1238.010362996549</v>
+        <v>1206.442659973114</v>
       </c>
       <c r="W19" t="n">
-        <v>948.5931929595879</v>
+        <v>917.0254899361536</v>
       </c>
       <c r="X19" t="n">
-        <v>720.6036420615706</v>
+        <v>778.4824707467408</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.2575946266452</v>
+        <v>647.1364233118153</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1766.491349661805</v>
+        <v>1658.186846312763</v>
       </c>
       <c r="C20" t="n">
-        <v>1486.975364429998</v>
+        <v>1378.670861080956</v>
       </c>
       <c r="D20" t="n">
-        <v>1218.156197531852</v>
+        <v>1109.85169418281</v>
       </c>
       <c r="E20" t="n">
-        <v>921.8144766422129</v>
+        <v>813.5099732931701</v>
       </c>
       <c r="F20" t="n">
-        <v>600.27510356121</v>
+        <v>491.970600212167</v>
       </c>
       <c r="G20" t="n">
-        <v>274.6491851148114</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3304.761684844869</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.230468937696</v>
+        <v>3209.074605701997</v>
       </c>
       <c r="U20" t="n">
-        <v>3153.295164033479</v>
+        <v>3044.990660684438</v>
       </c>
       <c r="V20" t="n">
-        <v>2911.678808398513</v>
+        <v>2803.374305049472</v>
       </c>
       <c r="W20" t="n">
-        <v>2648.356684837004</v>
+        <v>2540.052181487962</v>
       </c>
       <c r="X20" t="n">
-        <v>2364.337458284529</v>
+        <v>2256.032954935487</v>
       </c>
       <c r="Y20" t="n">
-        <v>2063.644658017322</v>
+        <v>1955.34015466828</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>497.0556615050099</v>
+        <v>675.9487249222179</v>
       </c>
       <c r="C22" t="n">
-        <v>417.5660102857078</v>
+        <v>596.4590737029156</v>
       </c>
       <c r="D22" t="n">
-        <v>356.8959025819768</v>
+        <v>446.3424342905798</v>
       </c>
       <c r="E22" t="n">
-        <v>298.4293407081884</v>
+        <v>298.4293407081867</v>
       </c>
       <c r="F22" t="n">
-        <v>240.9859249188828</v>
+        <v>209.4182218954477</v>
       </c>
       <c r="G22" t="n">
-        <v>162.7296200022066</v>
+        <v>131.1619169787712</v>
       </c>
       <c r="H22" t="n">
-        <v>105.9589649286691</v>
+        <v>74.39126190523352</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5938,22 +5938,22 @@
         <v>1824.671270090056</v>
       </c>
       <c r="T22" t="n">
-        <v>1692.351186368187</v>
+        <v>1692.351186368186</v>
       </c>
       <c r="U22" t="n">
-        <v>1403.24831949383</v>
+        <v>1492.694851202434</v>
       </c>
       <c r="V22" t="n">
-        <v>1148.563831287943</v>
+        <v>1327.456894705152</v>
       </c>
       <c r="W22" t="n">
-        <v>859.1466612509828</v>
+        <v>1127.486256376796</v>
       </c>
       <c r="X22" t="n">
-        <v>720.6036420615702</v>
+        <v>988.9432371873833</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.2575946266448</v>
+        <v>768.1506580438531</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1769.12703619473</v>
+        <v>1769.127036194732</v>
       </c>
       <c r="C23" t="n">
-        <v>1489.611050962923</v>
+        <v>1489.611050962925</v>
       </c>
       <c r="D23" t="n">
-        <v>1220.791884064778</v>
+        <v>1220.791884064779</v>
       </c>
       <c r="E23" t="n">
-        <v>924.4501631751385</v>
+        <v>924.4501631751393</v>
       </c>
       <c r="F23" t="n">
-        <v>602.9107900941357</v>
+        <v>602.9107900941362</v>
       </c>
       <c r="G23" t="n">
-        <v>277.2848716477368</v>
+        <v>277.284871647737</v>
       </c>
       <c r="H23" t="n">
-        <v>69.14780296510874</v>
+        <v>69.1478029651088</v>
       </c>
       <c r="I23" t="n">
-        <v>69.14780296510874</v>
+        <v>69.1478029651088</v>
       </c>
       <c r="J23" t="n">
-        <v>258.0269339241341</v>
+        <v>258.0269339241342</v>
       </c>
       <c r="K23" t="n">
         <v>591.8463076139806</v>
@@ -5996,43 +5996,43 @@
         <v>1042.880520862389</v>
       </c>
       <c r="M23" t="n">
-        <v>1640.501809973403</v>
+        <v>1576.412425534314</v>
       </c>
       <c r="N23" t="n">
-        <v>2187.280627032185</v>
+        <v>2123.191242593096</v>
       </c>
       <c r="O23" t="n">
-        <v>2690.253097911522</v>
+        <v>2626.163713472433</v>
       </c>
       <c r="P23" t="n">
-        <v>3085.0274642687</v>
+        <v>3020.938079829611</v>
       </c>
       <c r="Q23" t="n">
-        <v>3333.313826024382</v>
+        <v>3398.373081698637</v>
       </c>
       <c r="R23" t="n">
-        <v>3457.390148255437</v>
+        <v>3457.39014825544</v>
       </c>
       <c r="S23" t="n">
-        <v>3436.546011491137</v>
+        <v>3436.546011491139</v>
       </c>
       <c r="T23" t="n">
-        <v>3320.014795583964</v>
+        <v>3320.014795583966</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.930850566405</v>
+        <v>3155.930850566408</v>
       </c>
       <c r="V23" t="n">
-        <v>2914.314494931439</v>
+        <v>2914.314494931441</v>
       </c>
       <c r="W23" t="n">
-        <v>2650.99237136993</v>
+        <v>2650.992371369932</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.973144817455</v>
+        <v>2366.973144817457</v>
       </c>
       <c r="Y23" t="n">
-        <v>2066.280344550248</v>
+        <v>2066.28034455025</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>178.6569889257033</v>
       </c>
       <c r="H24" t="n">
-        <v>88.1550945635708</v>
+        <v>88.15509456357086</v>
       </c>
       <c r="I24" t="n">
-        <v>69.14780296510874</v>
+        <v>69.1478029651088</v>
       </c>
       <c r="J24" t="n">
-        <v>162.825072455726</v>
+        <v>162.8250724557261</v>
       </c>
       <c r="K24" t="n">
         <v>401.0892714360731</v>
       </c>
       <c r="L24" t="n">
-        <v>767.7874317487383</v>
+        <v>767.7874317487384</v>
       </c>
       <c r="M24" t="n">
         <v>1215.063756971054</v>
@@ -6081,13 +6081,13 @@
         <v>1688.586800525509</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.548079943563</v>
+        <v>2099.548079943564</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.047671419666</v>
+        <v>2410.047671419667</v>
       </c>
       <c r="Q24" t="n">
-        <v>2567.689229066265</v>
+        <v>2567.689229066266</v>
       </c>
       <c r="R24" t="n">
         <v>2567.544875658782</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.1378797465403</v>
+        <v>557.5701767231055</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2016968186334</v>
+        <v>478.0805255038032</v>
       </c>
       <c r="D25" t="n">
-        <v>359.5315891149024</v>
+        <v>417.410417800072</v>
       </c>
       <c r="E25" t="n">
-        <v>269.497324217678</v>
+        <v>269.4973242176789</v>
       </c>
       <c r="F25" t="n">
-        <v>212.0539084283724</v>
+        <v>212.0539084283731</v>
       </c>
       <c r="G25" t="n">
-        <v>133.7976035116961</v>
+        <v>133.7976035116966</v>
       </c>
       <c r="H25" t="n">
-        <v>77.02694843815864</v>
+        <v>77.02694843815891</v>
       </c>
       <c r="I25" t="n">
-        <v>69.14780296510874</v>
+        <v>69.1478029651088</v>
       </c>
       <c r="J25" t="n">
         <v>114.2704354120443</v>
       </c>
       <c r="K25" t="n">
-        <v>318.2576183609206</v>
+        <v>318.2576183609207</v>
       </c>
       <c r="L25" t="n">
         <v>634.8174168094167</v>
@@ -6169,28 +6169,28 @@
         <v>1929.930234621418</v>
       </c>
       <c r="R25" t="n">
-        <v>1929.54630908755</v>
+        <v>1840.099777378946</v>
       </c>
       <c r="S25" t="n">
-        <v>1827.306956622981</v>
+        <v>1706.292721890944</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.986872901112</v>
+        <v>1484.526106460469</v>
       </c>
       <c r="U25" t="n">
-        <v>1495.330537735361</v>
+        <v>1284.869771294718</v>
       </c>
       <c r="V25" t="n">
-        <v>1330.092581238079</v>
+        <v>1119.631814797435</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.121942909723</v>
+        <v>919.6611764690791</v>
       </c>
       <c r="X25" t="n">
-        <v>991.5789237203102</v>
+        <v>781.1181572796663</v>
       </c>
       <c r="Y25" t="n">
-        <v>770.78634457678</v>
+        <v>649.7721098447407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1886.947760467651</v>
+        <v>1886.94776046765</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.687569101516</v>
+        <v>1588.687569101515</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.124196069042</v>
+        <v>1301.124196069041</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0382690450745</v>
+        <v>986.0382690450738</v>
       </c>
       <c r="F26" t="n">
-        <v>645.7546898297435</v>
+        <v>645.7546898297428</v>
       </c>
       <c r="G26" t="n">
         <v>301.3845652490158</v>
@@ -6224,28 +6224,28 @@
         <v>74.50329043205964</v>
       </c>
       <c r="J26" t="n">
-        <v>266.5036329602073</v>
+        <v>263.382421391085</v>
       </c>
       <c r="K26" t="n">
-        <v>600.3230066500537</v>
+        <v>918.1057535263844</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.357219898462</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M26" t="n">
-        <v>1973.3354389952</v>
+        <v>1902.671871446717</v>
       </c>
       <c r="N26" t="n">
-        <v>2520.114256053982</v>
+        <v>2449.4506885055</v>
       </c>
       <c r="O26" t="n">
-        <v>3023.086726933319</v>
+        <v>2952.423159384837</v>
       </c>
       <c r="P26" t="n">
-        <v>3417.861093290497</v>
+        <v>3347.197525742014</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.147455046179</v>
+        <v>3601.088199371927</v>
       </c>
       <c r="R26" t="n">
         <v>3725.164521602982</v>
@@ -6257,19 +6257,19 @@
         <v>3550.300756662853</v>
       </c>
       <c r="U26" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V26" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W26" t="n">
-        <v>2825.045714045835</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y26" t="n">
-        <v>2202.845274957496</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.688575421747</v>
+        <v>604.6885754217469</v>
       </c>
       <c r="C28" t="n">
-        <v>506.4547180681167</v>
+        <v>506.4547180681166</v>
       </c>
       <c r="D28" t="n">
-        <v>427.0404042300577</v>
+        <v>427.0404042300576</v>
       </c>
       <c r="E28" t="n">
-        <v>349.8296362219412</v>
+        <v>349.8296362219411</v>
       </c>
       <c r="F28" t="n">
-        <v>273.6420142983075</v>
+        <v>273.6420142983074</v>
       </c>
       <c r="G28" t="n">
         <v>176.641503247303</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1266420394375</v>
+        <v>101.1266420394377</v>
       </c>
       <c r="I28" t="n">
         <v>74.50329043205964</v>
@@ -6388,10 +6388,10 @@
         <v>323.6131058278715</v>
       </c>
       <c r="L28" t="n">
-        <v>640.1729042763675</v>
+        <v>640.1729042763677</v>
       </c>
       <c r="M28" t="n">
-        <v>984.3299498759163</v>
+        <v>984.3299498759166</v>
       </c>
       <c r="N28" t="n">
         <v>1325.738326581781</v>
@@ -6415,7 +6415,7 @@
         <v>1644.109741965078</v>
       </c>
       <c r="U28" t="n">
-        <v>1425.709200664999</v>
+        <v>1425.709200664998</v>
       </c>
       <c r="V28" t="n">
         <v>1241.727038033388</v>
@@ -6424,10 +6424,10 @@
         <v>1023.012193570704</v>
       </c>
       <c r="X28" t="n">
-        <v>865.7249682469636</v>
+        <v>865.7249682469635</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.6347146777101</v>
+        <v>715.63471467771</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>2200.835586644151</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2747.614403702933</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O29" t="n">
-        <v>3250.58687458227</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P29" t="n">
-        <v>3645.361240939448</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3979.725003735985</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,16 +6497,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6604,28 +6604,28 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572845</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.154208495152</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,19 +6862,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,31 +6920,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6953,31 +6953,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,22 +7032,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199864</v>
@@ -7056,7 +7056,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170922</v>
+        <v>453.7336441225991</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630287</v>
+        <v>383.4688957685356</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>332.0236909300432</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>282.7820319214936</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>234.5635189974266</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>165.532116945989</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>117.9863647376902</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431752</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734885</v>
+        <v>536.7106743789953</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,55 +7157,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495731</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.4050786964419</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>482.1403303423784</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D40" t="n">
-        <v>430.6951255038861</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>381.4534664953364</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>333.2349535712695</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>264.2035515198319</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7360,22 +7360,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>886.8213698466989</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X40" t="n">
-        <v>757.503253522525</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528383</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307333</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,7 +7424,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>444.8926667912272</v>
+        <v>642.2355359389148</v>
       </c>
       <c r="C43" t="n">
-        <v>374.6279184371637</v>
+        <v>571.9707875848515</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>520.5255827463593</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>471.2839237378097</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
@@ -7600,19 +7600,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X43" t="n">
-        <v>847.333710764997</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214669</v>
+        <v>725.212566195311</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7628,58 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7737,13 +7737,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127574</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586939</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202017</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>569.9553583116519</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
-        <v>423.0654108137416</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
-        <v>255.3625741884605</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1692.975392941182</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084552</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1379.448779784039</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411917</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388405</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691538</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>140.8233873496623</v>
+        <v>140.8233873496629</v>
       </c>
       <c r="K8" t="n">
-        <v>159.8067244085721</v>
+        <v>159.806724408573</v>
       </c>
       <c r="L8" t="n">
-        <v>160.9798657788272</v>
+        <v>160.9798657788284</v>
       </c>
       <c r="M8" t="n">
-        <v>147.1317874267735</v>
+        <v>147.1317874267748</v>
       </c>
       <c r="N8" t="n">
-        <v>144.852121065015</v>
+        <v>144.8521210650163</v>
       </c>
       <c r="O8" t="n">
-        <v>150.2497112551416</v>
+        <v>150.2497112551429</v>
       </c>
       <c r="P8" t="n">
-        <v>163.0841482234646</v>
+        <v>163.0841482234657</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.1287435064576</v>
+        <v>171.1287435064584</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>102.8813709878595</v>
+        <v>102.8813709878599</v>
       </c>
       <c r="K9" t="n">
-        <v>96.89638232301303</v>
+        <v>96.89638232301368</v>
       </c>
       <c r="L9" t="n">
-        <v>83.49869817830748</v>
+        <v>83.49869817830833</v>
       </c>
       <c r="M9" t="n">
-        <v>77.88665030172727</v>
+        <v>77.88665030172828</v>
       </c>
       <c r="N9" t="n">
-        <v>65.39389139266964</v>
+        <v>65.3938913926707</v>
       </c>
       <c r="O9" t="n">
-        <v>82.2668724650446</v>
+        <v>82.26687246504555</v>
       </c>
       <c r="P9" t="n">
-        <v>85.55476766947595</v>
+        <v>85.55476766947672</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.6145271951621</v>
+        <v>107.6145271951626</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>104.3153618653069</v>
+        <v>104.3153618653073</v>
       </c>
       <c r="L10" t="n">
-        <v>103.2798721986322</v>
+        <v>103.2798721986327</v>
       </c>
       <c r="M10" t="n">
-        <v>105.6029493630155</v>
+        <v>105.6029493630161</v>
       </c>
       <c r="N10" t="n">
-        <v>95.15505240686772</v>
+        <v>95.15505240686824</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4093638232284</v>
+        <v>108.4093638232289</v>
       </c>
       <c r="P10" t="n">
-        <v>112.0174553445499</v>
+        <v>112.0174553445503</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>62.66294178094364</v>
       </c>
       <c r="K12" t="n">
-        <v>201.0371434531211</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.14441500855193</v>
+        <v>13.14441500855165</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>64.736751958676</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>130.453171831661</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.152738958709364</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>392.3700145705189</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>5.660921085080844</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.0221413214874</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>18.79169145623396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>40.02214132148788</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672786</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.82882753499367</v>
+        <v>14.82882753499368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>336.1262775476981</v>
+        <v>336.1262775476984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>388.3192816687268</v>
       </c>
       <c r="G11" t="n">
-        <v>228.4060956939076</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>99.54951247500519</v>
       </c>
       <c r="T11" t="n">
-        <v>187.0744610687675</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>232.4697180858419</v>
+        <v>232.4697180858421</v>
       </c>
       <c r="V11" t="n">
-        <v>309.1954943971501</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>330.6842046444282</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>199.8102870774428</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>367.681174583069</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.2752161089527</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0587089452275</v>
+        <v>88.19612564895219</v>
       </c>
       <c r="E13" t="n">
-        <v>127.8771985735843</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8642839499464</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.64460265847</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>201.7422986762792</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>233.5808792508432</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>248.4434066366576</v>
+        <v>267.9662342636064</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980814</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>175.6377756772137</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.4267852420427</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V14" t="n">
-        <v>286.1753286972088</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>128.697569766169</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>128.697569766165</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>127.8571537122095</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>127.8571537122112</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>107.2214583155534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>20.63569539665735</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>127.8571537122093</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1095143.760210496</v>
+        <v>1095143.760210497</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1222101.177640902</v>
+        <v>1222101.177640901</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1310801.711916338</v>
+        <v>1310801.711916337</v>
       </c>
     </row>
     <row r="8">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>122891.4508075557</v>
+      </c>
+      <c r="C2" t="n">
         <v>122891.4508075558</v>
-      </c>
-      <c r="C2" t="n">
-        <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
         <v>122897.1092927186</v>
       </c>
       <c r="E2" t="n">
-        <v>100645.6597189927</v>
+        <v>100645.6597189928</v>
       </c>
       <c r="F2" t="n">
-        <v>113313.9759759967</v>
+        <v>113313.9759759966</v>
       </c>
       <c r="G2" t="n">
         <v>121629.6510643187</v>
@@ -26338,19 +26338,19 @@
         <v>123156.2654796425</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796426</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100958.4565060329</v>
+        <v>100958.4565060313</v>
       </c>
       <c r="E3" t="n">
-        <v>930067.3600873752</v>
+        <v>930067.360087379</v>
       </c>
       <c r="F3" t="n">
-        <v>129553.6137693197</v>
+        <v>129553.6137693175</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487406</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8761.054981525545</v>
+        <v>8761.054981525665</v>
       </c>
       <c r="J3" t="n">
-        <v>17515.38953503626</v>
+        <v>17515.38953503608</v>
       </c>
       <c r="K3" t="n">
-        <v>21373.21069935964</v>
+        <v>21373.21069935967</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>172437.1621020869</v>
+        <v>172437.1621020877</v>
       </c>
       <c r="N3" t="n">
-        <v>29220.67633240283</v>
+        <v>29220.67633240213</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>423342.2812399318</v>
+        <v>423342.2812399324</v>
       </c>
       <c r="E4" t="n">
-        <v>40901.34376976869</v>
+        <v>40901.34376976828</v>
       </c>
       <c r="F4" t="n">
-        <v>56055.39944609846</v>
+        <v>56055.39944609824</v>
       </c>
       <c r="G4" t="n">
-        <v>87594.84521250922</v>
+        <v>87594.84521250904</v>
       </c>
       <c r="H4" t="n">
-        <v>87594.84521250922</v>
+        <v>87594.84521250908</v>
       </c>
       <c r="I4" t="n">
-        <v>93321.66118401592</v>
+        <v>93321.66118401587</v>
       </c>
       <c r="J4" t="n">
         <v>93154.7889251973</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226083</v>
+        <v>93063.75099226084</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226076</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="O4" t="n">
         <v>93403.78684820642</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820644</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36197.49534481164</v>
+        <v>36197.4953448116</v>
       </c>
       <c r="E5" t="n">
-        <v>66490.38707958168</v>
+        <v>66490.38707958188</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.67147047342</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
-        <v>81750.82423086186</v>
+        <v>81750.82423086185</v>
       </c>
       <c r="H5" t="n">
         <v>81750.82423086185</v>
       </c>
       <c r="I5" t="n">
-        <v>83753.94599588512</v>
+        <v>83753.94599588515</v>
       </c>
       <c r="J5" t="n">
         <v>86264.06787191605</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373886.880294554</v>
+        <v>-373891.2938724222</v>
       </c>
       <c r="C6" t="n">
-        <v>-373886.880294554</v>
+        <v>-373891.2938724221</v>
       </c>
       <c r="D6" t="n">
-        <v>-437601.1237980577</v>
+        <v>-437605.4430678388</v>
       </c>
       <c r="E6" t="n">
-        <v>-936813.4312177328</v>
+        <v>-937188.6079804138</v>
       </c>
       <c r="F6" t="n">
-        <v>-150096.7087098949</v>
+        <v>-150260.7468682866</v>
       </c>
       <c r="G6" t="n">
-        <v>-85296.12767392646</v>
+        <v>-85321.57124751499</v>
       </c>
       <c r="H6" t="n">
-        <v>-47716.01837905236</v>
+        <v>-47741.46195264096</v>
       </c>
       <c r="I6" t="n">
-        <v>-62680.39668178406</v>
+        <v>-62680.3966817842</v>
       </c>
       <c r="J6" t="n">
-        <v>-73777.98085250711</v>
+        <v>-73777.98085250694</v>
       </c>
       <c r="K6" t="n">
-        <v>-80658.63788678413</v>
+        <v>-80658.63788678418</v>
       </c>
       <c r="L6" t="n">
-        <v>-96865.5364822986</v>
+        <v>-96865.53648229862</v>
       </c>
       <c r="M6" t="n">
-        <v>-225203.2807769006</v>
+        <v>-225203.2807769013</v>
       </c>
       <c r="N6" t="n">
-        <v>-81986.79500721641</v>
+        <v>-81986.79500721571</v>
       </c>
       <c r="O6" t="n">
-        <v>-52766.11867481373</v>
+        <v>-52766.11867481376</v>
       </c>
       <c r="P6" t="n">
-        <v>-52766.1186748136</v>
+        <v>-52766.1186748137</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="G2" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H2" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I2" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="J2" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8851075601671</v>
+        <v>117.8851075601652</v>
       </c>
       <c r="E3" t="n">
-        <v>992.4215477022935</v>
+        <v>992.4215477022957</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>712.0978411319066</v>
+        <v>712.0978411319095</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>864.3475370638592</v>
+        <v>864.3475370638599</v>
       </c>
       <c r="J4" t="n">
         <v>931.2911304007455</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.55676407298483</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.02016569994132</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8851075601671</v>
+        <v>117.8851075601652</v>
       </c>
       <c r="E3" t="n">
-        <v>874.5364401421265</v>
+        <v>874.5364401421305</v>
       </c>
       <c r="F3" t="n">
-        <v>97.35515289100454</v>
+        <v>97.3551528910026</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>712.0978411319066</v>
+        <v>712.0978411319095</v>
       </c>
       <c r="F4" t="n">
-        <v>119.303614270386</v>
+        <v>119.3036142703834</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.94608166156695</v>
+        <v>32.9460816615674</v>
       </c>
       <c r="J4" t="n">
-        <v>66.94359333688624</v>
+        <v>66.94359333688556</v>
       </c>
       <c r="K4" t="n">
-        <v>83.04533080786905</v>
+        <v>83.04533080786916</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.1628353255846</v>
+        <v>529.1628353255876</v>
       </c>
       <c r="N4" t="n">
-        <v>119.303614270386</v>
+        <v>119.3036142703833</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.55676407298483</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994129</v>
+        <v>23.02016569994132</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>712.0978411319066</v>
+        <v>712.0978411319095</v>
       </c>
       <c r="N4" t="n">
-        <v>119.303614270386</v>
+        <v>119.3036142703834</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>334.6213715316443</v>
       </c>
       <c r="I8" t="n">
-        <v>192.2054750610055</v>
+        <v>192.2054750610058</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>120.099870151094</v>
+        <v>120.0998701510945</v>
       </c>
       <c r="S8" t="n">
-        <v>198.2208459137738</v>
+        <v>198.2208459137739</v>
       </c>
       <c r="T8" t="n">
         <v>221.0213086260625</v>
@@ -27947,10 +27947,10 @@
         <v>137.0899529695907</v>
       </c>
       <c r="H9" t="n">
-        <v>109.7865479454824</v>
+        <v>109.7865479454825</v>
       </c>
       <c r="I9" t="n">
-        <v>80.66646215002534</v>
+        <v>80.66646215002548</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.41461167507968</v>
+        <v>84.41461167507993</v>
       </c>
       <c r="S9" t="n">
         <v>166.9733274197123</v>
@@ -28029,10 +28029,10 @@
         <v>160.3371457009831</v>
       </c>
       <c r="I10" t="n">
-        <v>149.0576235205528</v>
+        <v>149.0576235205529</v>
       </c>
       <c r="J10" t="n">
-        <v>78.32979517412492</v>
+        <v>78.32979517412515</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.36139201010916</v>
+        <v>68.36139201010944</v>
       </c>
       <c r="R10" t="n">
-        <v>167.7350349510615</v>
+        <v>167.7350349510617</v>
       </c>
       <c r="S10" t="n">
         <v>220.311913591188</v>
       </c>
       <c r="T10" t="n">
-        <v>227.0372943372441</v>
+        <v>227.0372943372442</v>
       </c>
       <c r="U10" t="n">
         <v>286.3074341000096</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="C11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="D11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="E11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="F11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="G11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="H11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="I11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="T11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="U11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="V11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="W11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="X11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="C13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="D13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="E13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="F13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="G13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="H13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="I13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="J13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="K13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="L13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="M13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="N13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="O13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="P13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="R13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="S13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="T13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="U13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="V13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="W13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="X13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.55676407298484</v>
+        <v>18.55676407298461</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292613</v>
+        <v>41.57692977292593</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="E17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="F17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="G17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="T17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="U17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="W17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="X17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y17" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="E19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="F19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="G19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H19" t="n">
-        <v>57.30004039831691</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.55206639151871</v>
+        <v>57.30004039831903</v>
       </c>
       <c r="S19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="U19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V19" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="E20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="F20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="G20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="T20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="U20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="W20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="X20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y20" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D22" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.55206639151871</v>
+        <v>57.30004039831961</v>
       </c>
       <c r="G22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I22" t="n">
-        <v>57.30004039831726</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="S22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="T22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="X22" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="E23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="F23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="G23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="T23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="U23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="W23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="X23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="D25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="E25" t="n">
-        <v>57.30004039831699</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="G25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="H25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="I25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>88.55206639151871</v>
+        <v>57.30004039831982</v>
       </c>
       <c r="T25" t="n">
-        <v>88.55206639151871</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="V25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="W25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="X25" t="n">
-        <v>88.55206639151871</v>
+        <v>88.55206639151849</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>88.55206639151849</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="C26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="D26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="E26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="F26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="G26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="H26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="T26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="U26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="V26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="W26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="X26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="C28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="D28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="E28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="F28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="G28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="H28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="I28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="S28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="T28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="U28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="V28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="W28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="X28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853389</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>45.39291458738637</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.72521440565373</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
         <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>45.39291458738693</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30432,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.72521440565393</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371146</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371017</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H46" t="n">
-        <v>54.14548214544457</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810498</v>
+        <v>46.72521440565242</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4739099801413748</v>
+        <v>0.4739099801413673</v>
       </c>
       <c r="H8" t="n">
-        <v>4.853430584122856</v>
+        <v>4.853430584122779</v>
       </c>
       <c r="I8" t="n">
-        <v>18.27041450940037</v>
+        <v>18.27041450940008</v>
       </c>
       <c r="J8" t="n">
-        <v>40.22251717702405</v>
+        <v>40.22251717702341</v>
       </c>
       <c r="K8" t="n">
-        <v>60.28312663640845</v>
+        <v>60.2831266364075</v>
       </c>
       <c r="L8" t="n">
-        <v>74.78654919116006</v>
+        <v>74.78654919115888</v>
       </c>
       <c r="M8" t="n">
-        <v>83.21444580049923</v>
+        <v>83.21444580049793</v>
       </c>
       <c r="N8" t="n">
-        <v>84.56094253157593</v>
+        <v>84.5609425315746</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84850016654512</v>
+        <v>79.84850016654387</v>
       </c>
       <c r="P8" t="n">
-        <v>68.14884753180492</v>
+        <v>68.14884753180385</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.17694636799192</v>
+        <v>51.17694636799111</v>
       </c>
       <c r="R8" t="n">
-        <v>29.76924779005566</v>
+        <v>29.76924779005519</v>
       </c>
       <c r="S8" t="n">
-        <v>10.79922367247159</v>
+        <v>10.79922367247142</v>
       </c>
       <c r="T8" t="n">
-        <v>2.074540938068869</v>
+        <v>2.074540938068837</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03791279841130998</v>
+        <v>0.03791279841130938</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.253564193619982</v>
+        <v>0.253564193619978</v>
       </c>
       <c r="H9" t="n">
-        <v>2.448896291014037</v>
+        <v>2.448896291013999</v>
       </c>
       <c r="I9" t="n">
-        <v>8.730170701389733</v>
+        <v>8.730170701389595</v>
       </c>
       <c r="J9" t="n">
-        <v>23.95625567880716</v>
+        <v>23.95625567880678</v>
       </c>
       <c r="K9" t="n">
-        <v>40.94505665134596</v>
+        <v>40.94505665134531</v>
       </c>
       <c r="L9" t="n">
-        <v>55.05568160156671</v>
+        <v>55.05568160156584</v>
       </c>
       <c r="M9" t="n">
-        <v>64.24738362029105</v>
+        <v>64.24738362029004</v>
       </c>
       <c r="N9" t="n">
-        <v>65.94782069066366</v>
+        <v>65.94782069066261</v>
       </c>
       <c r="O9" t="n">
-        <v>60.32937197939984</v>
+        <v>60.32937197939889</v>
       </c>
       <c r="P9" t="n">
-        <v>48.41963974485429</v>
+        <v>48.41963974485353</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.36724689085946</v>
+        <v>32.36724689085895</v>
       </c>
       <c r="R9" t="n">
-        <v>15.74322247756345</v>
+        <v>15.7432224775632</v>
       </c>
       <c r="S9" t="n">
-        <v>4.70984368412554</v>
+        <v>4.709843684125466</v>
       </c>
       <c r="T9" t="n">
-        <v>1.022041640073523</v>
+        <v>1.022041640073508</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01668185484341988</v>
+        <v>0.01668185484341961</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2125797021576783</v>
+        <v>0.2125797021576749</v>
       </c>
       <c r="H10" t="n">
-        <v>1.89002680645645</v>
+        <v>1.890026806456421</v>
       </c>
       <c r="I10" t="n">
-        <v>6.392851406705455</v>
+        <v>6.392851406705354</v>
       </c>
       <c r="J10" t="n">
-        <v>15.02938494254786</v>
+        <v>15.02938494254762</v>
       </c>
       <c r="K10" t="n">
-        <v>24.69789630522844</v>
+        <v>24.69789630522805</v>
       </c>
       <c r="L10" t="n">
-        <v>31.6048040826061</v>
+        <v>31.60480408260561</v>
       </c>
       <c r="M10" t="n">
-        <v>33.32283458458951</v>
+        <v>33.32283458458899</v>
       </c>
       <c r="N10" t="n">
-        <v>32.53049205836547</v>
+        <v>32.53049205836496</v>
       </c>
       <c r="O10" t="n">
-        <v>30.0471746286144</v>
+        <v>30.04717462861392</v>
       </c>
       <c r="P10" t="n">
-        <v>25.71054870459774</v>
+        <v>25.71054870459733</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.80065124158523</v>
+        <v>17.80065124158495</v>
       </c>
       <c r="R10" t="n">
-        <v>9.55835642610797</v>
+        <v>9.558356426107819</v>
       </c>
       <c r="S10" t="n">
-        <v>3.704684445784265</v>
+        <v>3.704684445784207</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9082950910373525</v>
+        <v>0.9082950910373382</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01159525648132792</v>
+        <v>0.01159525648132774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.989634362622283</v>
+        <v>3.989634362622291</v>
       </c>
       <c r="H11" t="n">
-        <v>40.85884291620546</v>
+        <v>40.85884291620555</v>
       </c>
       <c r="I11" t="n">
-        <v>153.8103787649957</v>
+        <v>153.810378764996</v>
       </c>
       <c r="J11" t="n">
-        <v>338.6152294846133</v>
+        <v>338.615229484614</v>
       </c>
       <c r="K11" t="n">
-        <v>507.4964520544146</v>
+        <v>507.4964520544157</v>
       </c>
       <c r="L11" t="n">
-        <v>629.5942246795164</v>
+        <v>629.5942246795178</v>
       </c>
       <c r="M11" t="n">
-        <v>700.5448847758004</v>
+        <v>700.544884775802</v>
       </c>
       <c r="N11" t="n">
-        <v>711.880433408601</v>
+        <v>711.8804334086026</v>
       </c>
       <c r="O11" t="n">
-        <v>672.2085067152757</v>
+        <v>672.2085067152771</v>
       </c>
       <c r="P11" t="n">
-        <v>573.7144083880379</v>
+        <v>573.7144083880391</v>
       </c>
       <c r="Q11" t="n">
-        <v>430.8356277766273</v>
+        <v>430.8356277766283</v>
       </c>
       <c r="R11" t="n">
-        <v>250.6138695310722</v>
+        <v>250.6138695310727</v>
       </c>
       <c r="S11" t="n">
-        <v>90.91379303825535</v>
+        <v>90.91379303825555</v>
       </c>
       <c r="T11" t="n">
-        <v>17.46462442237905</v>
+        <v>17.46462442237909</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3191707490097825</v>
+        <v>0.3191707490097833</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.134642574303046</v>
+        <v>2.134642574303051</v>
       </c>
       <c r="H12" t="n">
-        <v>20.61615328340048</v>
+        <v>20.61615328340052</v>
       </c>
       <c r="I12" t="n">
-        <v>73.49536933455666</v>
+        <v>73.49536933455681</v>
       </c>
       <c r="J12" t="n">
-        <v>201.6769109344822</v>
+        <v>201.6769109344826</v>
       </c>
       <c r="K12" t="n">
-        <v>344.6979634127862</v>
+        <v>344.697963412787</v>
       </c>
       <c r="L12" t="n">
-        <v>463.4889501792646</v>
+        <v>463.4889501792656</v>
       </c>
       <c r="M12" t="n">
-        <v>540.8697434977499</v>
+        <v>540.8697434977511</v>
       </c>
       <c r="N12" t="n">
-        <v>555.1849561999841</v>
+        <v>555.1849561999852</v>
       </c>
       <c r="O12" t="n">
-        <v>507.8857707377954</v>
+        <v>507.8857707377966</v>
       </c>
       <c r="P12" t="n">
-        <v>407.6231070175704</v>
+        <v>407.6231070175713</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.4852521162977</v>
+        <v>272.4852521162983</v>
       </c>
       <c r="R12" t="n">
-        <v>132.535088955412</v>
+        <v>132.5350889554123</v>
       </c>
       <c r="S12" t="n">
-        <v>39.65004957093595</v>
+        <v>39.65004957093603</v>
       </c>
       <c r="T12" t="n">
-        <v>8.604107569230258</v>
+        <v>8.604107569230278</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1404370114673058</v>
+        <v>0.1404370114673061</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.789612627004136</v>
+        <v>1.789612627004139</v>
       </c>
       <c r="H13" t="n">
-        <v>15.91128317463678</v>
+        <v>15.91128317463682</v>
       </c>
       <c r="I13" t="n">
-        <v>53.81853245572439</v>
+        <v>53.81853245572451</v>
       </c>
       <c r="J13" t="n">
-        <v>126.5256127291924</v>
+        <v>126.5256127291927</v>
       </c>
       <c r="K13" t="n">
-        <v>207.9204488464804</v>
+        <v>207.9204488464809</v>
       </c>
       <c r="L13" t="n">
-        <v>266.0665900184149</v>
+        <v>266.0665900184155</v>
       </c>
       <c r="M13" t="n">
-        <v>280.5299138857483</v>
+        <v>280.5299138857488</v>
       </c>
       <c r="N13" t="n">
-        <v>273.859539548733</v>
+        <v>273.8595395487337</v>
       </c>
       <c r="O13" t="n">
-        <v>252.9536102241846</v>
+        <v>252.9536102241852</v>
       </c>
       <c r="P13" t="n">
-        <v>216.4455126333001</v>
+        <v>216.4455126333006</v>
       </c>
       <c r="Q13" t="n">
-        <v>149.8556537030463</v>
+        <v>149.8556537030466</v>
       </c>
       <c r="R13" t="n">
-        <v>80.46749139238594</v>
+        <v>80.46749139238611</v>
       </c>
       <c r="S13" t="n">
-        <v>31.18806732697206</v>
+        <v>31.18806732697213</v>
       </c>
       <c r="T13" t="n">
-        <v>7.646526679017668</v>
+        <v>7.646526679017685</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09761523420022569</v>
+        <v>0.09761523420022591</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34372,7 +34372,7 @@
         <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623203</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574992</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>157.569324957927</v>
+        <v>157.5693249579277</v>
       </c>
       <c r="K11" t="n">
-        <v>287.406601009434</v>
+        <v>287.4066010094351</v>
       </c>
       <c r="L11" t="n">
-        <v>393.8278097095292</v>
+        <v>393.8278097095305</v>
       </c>
       <c r="M11" t="n">
-        <v>470.1986515485277</v>
+        <v>470.1986515485293</v>
       </c>
       <c r="N11" t="n">
-        <v>482.4673698120101</v>
+        <v>482.4673698120117</v>
       </c>
       <c r="O11" t="n">
-        <v>442.1102952935889</v>
+        <v>442.1102952935903</v>
       </c>
       <c r="P11" t="n">
-        <v>342.4814126327684</v>
+        <v>342.4814126327696</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.5299379021778</v>
+        <v>208.5299379021788</v>
       </c>
       <c r="R11" t="n">
-        <v>35.02833171694004</v>
+        <v>35.02833171694061</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>200.9303196082243</v>
+        <v>137.5022260487596</v>
       </c>
       <c r="K12" t="n">
-        <v>407.8936678915483</v>
+        <v>471.3217614510066</v>
       </c>
       <c r="L12" t="n">
-        <v>324.9345703993904</v>
+        <v>324.9345703993914</v>
       </c>
       <c r="M12" t="n">
-        <v>398.7357095757316</v>
+        <v>398.7357095757328</v>
       </c>
       <c r="N12" t="n">
-        <v>423.8432441166508</v>
+        <v>423.8432441166519</v>
       </c>
       <c r="O12" t="n">
-        <v>365.289526293351</v>
+        <v>365.2895262933521</v>
       </c>
       <c r="P12" t="n">
-        <v>273.6486996032401</v>
+        <v>273.648699603241</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.5034780302761</v>
+        <v>132.5034780302768</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.72319668550445</v>
+        <v>51.72319668550449</v>
       </c>
       <c r="K13" t="n">
-        <v>204.2077210935824</v>
+        <v>204.2077210935826</v>
       </c>
       <c r="L13" t="n">
-        <v>312.2133793517159</v>
+        <v>312.2133793517162</v>
       </c>
       <c r="M13" t="n">
-        <v>338.6705549205737</v>
+        <v>338.670554920574</v>
       </c>
       <c r="N13" t="n">
-        <v>336.5484760009465</v>
+        <v>336.5484760009468</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0955022112092</v>
+        <v>296.0955022112095</v>
       </c>
       <c r="P13" t="n">
-        <v>232.2808359711784</v>
+        <v>232.2808359711787</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.25037452433679</v>
+        <v>82.25037452433686</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599232</v>
+        <v>87.15534638599215</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172456</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>361.3343019431242</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664099</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
-        <v>386.4338759404661</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955658</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180365</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108198</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>603.6578677889025</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>381.2474766353804</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>193.9397399274219</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>931.2911304007455</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>256.4552258888003</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.8164461252068</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>78.40488999845869</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>377.2134278768883</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204473</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923331</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
